--- a/files/Canagan_-_Margin_raport.xlsx
+++ b/files/Canagan_-_Margin_raport.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\margin\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE551762-14F1-4B20-9665-765441F71F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView minimized="1" xWindow="14445" yWindow="1035" windowWidth="11820" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Product Name</t>
   </si>
@@ -503,32 +518,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -539,43 +542,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd6d6d6"/>
+        <fgColor rgb="FFD6D6D6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="10" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="10" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -865,30 +873,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
-    <col min="9" max="9" width="5" customWidth="true" style="0"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -931,12 +934,11 @@
         <v>1.22</v>
       </c>
       <c r="E2" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F2"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G2" s="3" t="str">
-        <f>if(F2 = "","",((F2/((I2/100)+1))-D2)/(F2/((I2/100)+1)))</f>
-        <v>0</v>
+        <f>IF(F2 = "","",((F2/((I2/100)+1))-D2)/(F2/((I2/100)+1)))</f>
+        <v/>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -945,7 +947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -959,12 +961,11 @@
         <v>1.22</v>
       </c>
       <c r="E3" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F3"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G3" s="3" t="str">
-        <f>if(F3 = "","",((F3/((I3/100)+1))-D3)/(F3/((I3/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" ref="G2:G33" si="0">IF(F3 = "","",((F3/((I3/100)+1))-D3)/(F3/((I3/100)+1)))</f>
+        <v/>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -973,7 +974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -987,12 +988,11 @@
         <v>1.22</v>
       </c>
       <c r="E4" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F4"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G4" s="3" t="str">
-        <f>if(F4 = "","",((F4/((I4/100)+1))-D4)/(F4/((I4/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1001,7 +1001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1015,12 +1015,11 @@
         <v>1.22</v>
       </c>
       <c r="E5" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F5"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G5" s="3" t="str">
-        <f>if(F5 = "","",((F5/((I5/100)+1))-D5)/(F5/((I5/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -1029,7 +1028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1043,12 +1042,11 @@
         <v>1.22</v>
       </c>
       <c r="E6" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F6"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G6" s="3" t="str">
-        <f>if(F6 = "","",((F6/((I6/100)+1))-D6)/(F6/((I6/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -1057,7 +1055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1071,12 +1069,11 @@
         <v>1.22</v>
       </c>
       <c r="E7" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F7"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G7" s="3" t="str">
-        <f>if(F7 = "","",((F7/((I7/100)+1))-D7)/(F7/((I7/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1085,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1099,12 +1096,11 @@
         <v>1.22</v>
       </c>
       <c r="E8" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F8"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G8" s="3" t="str">
-        <f>if(F8 = "","",((F8/((I8/100)+1))-D8)/(F8/((I8/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -1113,7 +1109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1127,12 +1123,11 @@
         <v>0.7</v>
       </c>
       <c r="E9" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F9"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G9" s="3" t="str">
-        <f>if(F9 = "","",((F9/((I9/100)+1))-D9)/(F9/((I9/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -1141,7 +1136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1155,12 +1150,11 @@
         <v>0.7</v>
       </c>
       <c r="E10" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F10"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G10" s="3" t="str">
-        <f>if(F10 = "","",((F10/((I10/100)+1))-D10)/(F10/((I10/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -1169,7 +1163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1183,12 +1177,11 @@
         <v>0.7</v>
       </c>
       <c r="E11" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F11"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G11" s="3" t="str">
-        <f>if(F11 = "","",((F11/((I11/100)+1))-D11)/(F11/((I11/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -1197,7 +1190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1211,12 +1204,11 @@
         <v>0.7</v>
       </c>
       <c r="E12" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F12"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G12" s="3" t="str">
-        <f>if(F12 = "","",((F12/((I12/100)+1))-D12)/(F12/((I12/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -1225,7 +1217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1239,12 +1231,11 @@
         <v>0.7</v>
       </c>
       <c r="E13" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F13"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G13" s="3" t="str">
-        <f>if(F13 = "","",((F13/((I13/100)+1))-D13)/(F13/((I13/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H13" t="s">
         <v>32</v>
@@ -1253,7 +1244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1267,12 +1258,11 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F14"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G14" s="3" t="str">
-        <f>if(F14 = "","",((F14/((I14/100)+1))-D14)/(F14/((I14/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H14" t="s">
         <v>34</v>
@@ -1281,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1295,12 +1285,11 @@
         <v>0.7</v>
       </c>
       <c r="E15" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F15"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G15" s="3" t="str">
-        <f>if(F15 = "","",((F15/((I15/100)+1))-D15)/(F15/((I15/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -1309,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1323,12 +1312,11 @@
         <v>0.7</v>
       </c>
       <c r="E16" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F16"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G16" s="3" t="str">
-        <f>if(F16 = "","",((F16/((I16/100)+1))-D16)/(F16/((I16/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H16" t="s">
         <v>38</v>
@@ -1337,7 +1325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1351,12 +1339,11 @@
         <v>0.7</v>
       </c>
       <c r="E17" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F17"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G17" s="3" t="str">
-        <f>if(F17 = "","",((F17/((I17/100)+1))-D17)/(F17/((I17/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H17" t="s">
         <v>40</v>
@@ -1365,7 +1352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1379,12 +1366,11 @@
         <v>0.7</v>
       </c>
       <c r="E18" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F18"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G18" s="3" t="str">
-        <f>if(F18 = "","",((F18/((I18/100)+1))-D18)/(F18/((I18/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H18" t="s">
         <v>42</v>
@@ -1393,7 +1379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1407,12 +1393,11 @@
         <v>0.7</v>
       </c>
       <c r="E19" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F19"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G19" s="3" t="str">
-        <f>if(F19 = "","",((F19/((I19/100)+1))-D19)/(F19/((I19/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H19" t="s">
         <v>44</v>
@@ -1421,7 +1406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1435,12 +1420,11 @@
         <v>0.7</v>
       </c>
       <c r="E20" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F20"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G20" s="3" t="str">
-        <f>if(F20 = "","",((F20/((I20/100)+1))-D20)/(F20/((I20/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H20" t="s">
         <v>46</v>
@@ -1449,7 +1433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1463,12 +1447,11 @@
         <v>0.7</v>
       </c>
       <c r="E21" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F21"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G21" s="3" t="str">
-        <f>if(F21 = "","",((F21/((I21/100)+1))-D21)/(F21/((I21/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H21" t="s">
         <v>48</v>
@@ -1477,7 +1460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1491,12 +1474,11 @@
         <v>0.7</v>
       </c>
       <c r="E22" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F22"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G22" s="3" t="str">
-        <f>if(F22 = "","",((F22/((I22/100)+1))-D22)/(F22/((I22/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H22" t="s">
         <v>50</v>
@@ -1505,7 +1487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1519,12 +1501,11 @@
         <v>0.7</v>
       </c>
       <c r="E23" s="2">
-        <v>0.426</v>
-      </c>
-      <c r="F23"/>
+        <v>0.42599999999999999</v>
+      </c>
       <c r="G23" s="3" t="str">
-        <f>if(F23 = "","",((F23/((I23/100)+1))-D23)/(F23/((I23/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -1533,7 +1514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1547,12 +1528,11 @@
         <v>0.64</v>
       </c>
       <c r="E24" s="2">
-        <v>0.45710344827586</v>
-      </c>
-      <c r="F24"/>
+        <v>0.45710344827586002</v>
+      </c>
       <c r="G24" s="3" t="str">
-        <f>if(F24 = "","",((F24/((I24/100)+1))-D24)/(F24/((I24/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -1561,7 +1541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1575,12 +1555,11 @@
         <v>0.64</v>
       </c>
       <c r="E25" s="2">
-        <v>0.45710344827586</v>
-      </c>
-      <c r="F25"/>
+        <v>0.45710344827586002</v>
+      </c>
       <c r="G25" s="3" t="str">
-        <f>if(F25 = "","",((F25/((I25/100)+1))-D25)/(F25/((I25/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -1589,7 +1568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1603,12 +1582,11 @@
         <v>0.64</v>
       </c>
       <c r="E26" s="2">
-        <v>0.45710344827586</v>
-      </c>
-      <c r="F26"/>
+        <v>0.45710344827586002</v>
+      </c>
       <c r="G26" s="3" t="str">
-        <f>if(F26 = "","",((F26/((I26/100)+1))-D26)/(F26/((I26/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1617,7 +1595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1628,15 +1606,14 @@
         <v>10.5</v>
       </c>
       <c r="D27">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="E27" s="2">
         <v>0.43185714285714</v>
       </c>
-      <c r="F27"/>
       <c r="G27" s="3" t="str">
-        <f>if(F27 = "","",((F27/((I27/100)+1))-D27)/(F27/((I27/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H27" t="s">
         <v>60</v>
@@ -1645,7 +1622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1661,10 +1638,9 @@
       <c r="E28" s="2">
         <v>0.4834</v>
       </c>
-      <c r="F28"/>
       <c r="G28" s="3" t="str">
-        <f>if(F28 = "","",((F28/((I28/100)+1))-D28)/(F28/((I28/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H28" t="s">
         <v>62</v>
@@ -1673,7 +1649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1687,12 +1663,11 @@
         <v>9.58</v>
       </c>
       <c r="E29" s="3">
-        <v>0.528664</v>
-      </c>
-      <c r="F29"/>
+        <v>0.52866400000000002</v>
+      </c>
       <c r="G29" s="3" t="str">
-        <f>if(F29 = "","",((F29/((I29/100)+1))-D29)/(F29/((I29/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H29" t="s">
         <v>64</v>
@@ -1701,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1715,12 +1690,11 @@
         <v>3.05</v>
       </c>
       <c r="E30" s="2">
-        <v>0.4998</v>
-      </c>
-      <c r="F30"/>
+        <v>0.49980000000000002</v>
+      </c>
       <c r="G30" s="3" t="str">
-        <f>if(F30 = "","",((F30/((I30/100)+1))-D30)/(F30/((I30/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H30" t="s">
         <v>66</v>
@@ -1729,7 +1703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1743,12 +1717,11 @@
         <v>22.02</v>
       </c>
       <c r="E31" s="3">
-        <v>0.50755272727273</v>
-      </c>
-      <c r="F31"/>
+        <v>0.50755272727273004</v>
+      </c>
       <c r="G31" s="3" t="str">
-        <f>if(F31 = "","",((F31/((I31/100)+1))-D31)/(F31/((I31/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H31" t="s">
         <v>68</v>
@@ -1757,7 +1730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1771,12 +1744,11 @@
         <v>44.74</v>
       </c>
       <c r="E32" s="2">
-        <v>0.449698</v>
-      </c>
-      <c r="F32"/>
+        <v>0.44969799999999999</v>
+      </c>
       <c r="G32" s="3" t="str">
-        <f>if(F32 = "","",((F32/((I32/100)+1))-D32)/(F32/((I32/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H32" t="s">
         <v>70</v>
@@ -1785,7 +1757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1799,12 +1771,11 @@
         <v>9.19</v>
       </c>
       <c r="E33" s="2">
-        <v>0.48619545454545</v>
-      </c>
-      <c r="F33"/>
+        <v>0.48619545454544999</v>
+      </c>
       <c r="G33" s="3" t="str">
-        <f>if(F33 = "","",((F33/((I33/100)+1))-D33)/(F33/((I33/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="H33" t="s">
         <v>72</v>
@@ -1813,7 +1784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1827,12 +1798,11 @@
         <v>23.89</v>
       </c>
       <c r="E34" s="2">
-        <v>0.46573272727273</v>
-      </c>
-      <c r="F34"/>
+        <v>0.46573272727273002</v>
+      </c>
       <c r="G34" s="3" t="str">
-        <f>if(F34 = "","",((F34/((I34/100)+1))-D34)/(F34/((I34/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" ref="G34:G65" si="1">IF(F34 = "","",((F34/((I34/100)+1))-D34)/(F34/((I34/100)+1)))</f>
+        <v/>
       </c>
       <c r="H34" t="s">
         <v>74</v>
@@ -1841,7 +1811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1855,12 +1825,11 @@
         <v>39.15</v>
       </c>
       <c r="E35" s="2">
-        <v>0.46495</v>
-      </c>
-      <c r="F35"/>
+        <v>0.46494999999999997</v>
+      </c>
       <c r="G35" s="3" t="str">
-        <f>if(F35 = "","",((F35/((I35/100)+1))-D35)/(F35/((I35/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H35" t="s">
         <v>76</v>
@@ -1869,7 +1838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1883,12 +1852,11 @@
         <v>8.15</v>
       </c>
       <c r="E36" s="2">
-        <v>0.498775</v>
-      </c>
-      <c r="F36"/>
+        <v>0.49877500000000002</v>
+      </c>
       <c r="G36" s="3" t="str">
-        <f>if(F36 = "","",((F36/((I36/100)+1))-D36)/(F36/((I36/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H36" t="s">
         <v>78</v>
@@ -1897,7 +1865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -1911,12 +1879,11 @@
         <v>21.03</v>
       </c>
       <c r="E37" s="2">
-        <v>0.482662</v>
-      </c>
-      <c r="F37"/>
+        <v>0.48266199999999998</v>
+      </c>
       <c r="G37" s="3" t="str">
-        <f>if(F37 = "","",((F37/((I37/100)+1))-D37)/(F37/((I37/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H37" t="s">
         <v>80</v>
@@ -1925,7 +1892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1939,12 +1906,11 @@
         <v>1.22</v>
       </c>
       <c r="E38" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F38"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G38" s="3" t="str">
-        <f>if(F38 = "","",((F38/((I38/100)+1))-D38)/(F38/((I38/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H38" t="s">
         <v>82</v>
@@ -1953,7 +1919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1967,12 +1933,11 @@
         <v>1.22</v>
       </c>
       <c r="E39" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F39"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G39" s="3" t="str">
-        <f>if(F39 = "","",((F39/((I39/100)+1))-D39)/(F39/((I39/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H39" t="s">
         <v>84</v>
@@ -1981,7 +1946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1995,12 +1960,11 @@
         <v>1.22</v>
       </c>
       <c r="E40" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F40"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G40" s="3" t="str">
-        <f>if(F40 = "","",((F40/((I40/100)+1))-D40)/(F40/((I40/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H40" t="s">
         <v>86</v>
@@ -2009,7 +1973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2023,12 +1987,11 @@
         <v>1.22</v>
       </c>
       <c r="E41" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F41"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G41" s="3" t="str">
-        <f>if(F41 = "","",((F41/((I41/100)+1))-D41)/(F41/((I41/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H41" t="s">
         <v>88</v>
@@ -2037,7 +2000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2051,12 +2014,11 @@
         <v>1.22</v>
       </c>
       <c r="E42" s="2">
-        <v>0.49132203389831</v>
-      </c>
-      <c r="F42"/>
+        <v>0.49132203389830997</v>
+      </c>
       <c r="G42" s="3" t="str">
-        <f>if(F42 = "","",((F42/((I42/100)+1))-D42)/(F42/((I42/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H42" t="s">
         <v>90</v>
@@ -2065,7 +2027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -2079,12 +2041,11 @@
         <v>1.34</v>
       </c>
       <c r="E43" s="3">
-        <v>0.91759</v>
-      </c>
-      <c r="F43"/>
+        <v>0.91759000000000002</v>
+      </c>
       <c r="G43" s="3" t="str">
-        <f>if(F43 = "","",((F43/((I43/100)+1))-D43)/(F43/((I43/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H43" t="s">
         <v>92</v>
@@ -2093,7 +2054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2107,12 +2068,11 @@
         <v>2.29</v>
       </c>
       <c r="E44" s="3">
-        <v>0.53055</v>
-      </c>
-      <c r="F44"/>
+        <v>0.53054999999999997</v>
+      </c>
       <c r="G44" s="3" t="str">
-        <f>if(F44 = "","",((F44/((I44/100)+1))-D44)/(F44/((I44/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H44" t="s">
         <v>94</v>
@@ -2121,7 +2081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2135,12 +2095,11 @@
         <v>16.61</v>
       </c>
       <c r="E45" s="2">
-        <v>0.4892425</v>
-      </c>
-      <c r="F45"/>
+        <v>0.48924250000000002</v>
+      </c>
       <c r="G45" s="3" t="str">
-        <f>if(F45 = "","",((F45/((I45/100)+1))-D45)/(F45/((I45/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H45" t="s">
         <v>96</v>
@@ -2149,7 +2108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2163,12 +2122,11 @@
         <v>30.45</v>
       </c>
       <c r="E46" s="2">
-        <v>0.4798125</v>
-      </c>
-      <c r="F46"/>
+        <v>0.47981249999999998</v>
+      </c>
       <c r="G46" s="3" t="str">
-        <f>if(F46 = "","",((F46/((I46/100)+1))-D46)/(F46/((I46/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H46" t="s">
         <v>98</v>
@@ -2177,7 +2135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2193,10 +2151,9 @@
       <c r="E47" s="2">
         <v>0.47279125</v>
       </c>
-      <c r="F47"/>
       <c r="G47" s="3" t="str">
-        <f>if(F47 = "","",((F47/((I47/100)+1))-D47)/(F47/((I47/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H47" t="s">
         <v>100</v>
@@ -2205,7 +2162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -2219,12 +2176,11 @@
         <v>7.12</v>
       </c>
       <c r="E48" s="2">
-        <v>0.48484705882353</v>
-      </c>
-      <c r="F48"/>
+        <v>0.48484705882353002</v>
+      </c>
       <c r="G48" s="3" t="str">
-        <f>if(F48 = "","",((F48/((I48/100)+1))-D48)/(F48/((I48/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H48" t="s">
         <v>102</v>
@@ -2233,7 +2189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -2247,12 +2203,11 @@
         <v>2.52</v>
       </c>
       <c r="E49" s="2">
-        <v>0.38008</v>
-      </c>
-      <c r="F49"/>
+        <v>0.38007999999999997</v>
+      </c>
       <c r="G49" s="3" t="str">
-        <f>if(F49 = "","",((F49/((I49/100)+1))-D49)/(F49/((I49/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H49" t="s">
         <v>104</v>
@@ -2261,7 +2216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2272,15 +2227,14 @@
         <v>45</v>
       </c>
       <c r="D50">
-        <v>18.26</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="E50" s="3">
-        <v>0.50089333333333</v>
-      </c>
-      <c r="F50"/>
+        <v>0.50089333333332997</v>
+      </c>
       <c r="G50" s="3" t="str">
-        <f>if(F50 = "","",((F50/((I50/100)+1))-D50)/(F50/((I50/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H50" t="s">
         <v>106</v>
@@ -2289,7 +2243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2305,10 +2259,9 @@
       <c r="E51" s="2">
         <v>0.4834</v>
       </c>
-      <c r="F51"/>
       <c r="G51" s="3" t="str">
-        <f>if(F51 = "","",((F51/((I51/100)+1))-D51)/(F51/((I51/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H51" t="s">
         <v>108</v>
@@ -2317,7 +2270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2331,12 +2284,11 @@
         <v>39.96</v>
       </c>
       <c r="E52" s="2">
-        <v>0.44146818181818</v>
-      </c>
-      <c r="F52"/>
+        <v>0.44146818181817998</v>
+      </c>
       <c r="G52" s="3" t="str">
-        <f>if(F52 = "","",((F52/((I52/100)+1))-D52)/(F52/((I52/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H52" t="s">
         <v>110</v>
@@ -2345,7 +2297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -2359,12 +2311,11 @@
         <v>8.15</v>
       </c>
       <c r="E53" s="2">
-        <v>0.47239473684211</v>
-      </c>
-      <c r="F53"/>
+        <v>0.47239473684210997</v>
+      </c>
       <c r="G53" s="3" t="str">
-        <f>if(F53 = "","",((F53/((I53/100)+1))-D53)/(F53/((I53/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H53" t="s">
         <v>112</v>
@@ -2373,7 +2324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2387,12 +2338,11 @@
         <v>21.58</v>
       </c>
       <c r="E54" s="2">
-        <v>0.469132</v>
-      </c>
-      <c r="F54"/>
+        <v>0.46913199999999999</v>
+      </c>
       <c r="G54" s="3" t="str">
-        <f>if(F54 = "","",((F54/((I54/100)+1))-D54)/(F54/((I54/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H54" t="s">
         <v>114</v>
@@ -2401,7 +2351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2415,12 +2365,11 @@
         <v>39.15</v>
       </c>
       <c r="E55" s="2">
-        <v>0.46495</v>
-      </c>
-      <c r="F55"/>
+        <v>0.46494999999999997</v>
+      </c>
       <c r="G55" s="3" t="str">
-        <f>if(F55 = "","",((F55/((I55/100)+1))-D55)/(F55/((I55/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H55" t="s">
         <v>116</v>
@@ -2429,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -2443,12 +2392,11 @@
         <v>8.15</v>
       </c>
       <c r="E56" s="2">
-        <v>0.498775</v>
-      </c>
-      <c r="F56"/>
+        <v>0.49877500000000002</v>
+      </c>
       <c r="G56" s="3" t="str">
-        <f>if(F56 = "","",((F56/((I56/100)+1))-D56)/(F56/((I56/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H56" t="s">
         <v>118</v>
@@ -2457,7 +2405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -2471,12 +2419,11 @@
         <v>21.03</v>
       </c>
       <c r="E57" s="2">
-        <v>0.482662</v>
-      </c>
-      <c r="F57"/>
+        <v>0.48266199999999998</v>
+      </c>
       <c r="G57" s="3" t="str">
-        <f>if(F57 = "","",((F57/((I57/100)+1))-D57)/(F57/((I57/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H57" t="s">
         <v>120</v>
@@ -2485,7 +2432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -2499,12 +2446,11 @@
         <v>35.92</v>
       </c>
       <c r="E58" s="2">
-        <v>0.48021647058824</v>
-      </c>
-      <c r="F58"/>
+        <v>0.48021647058824002</v>
+      </c>
       <c r="G58" s="3" t="str">
-        <f>if(F58 = "","",((F58/((I58/100)+1))-D58)/(F58/((I58/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H58" t="s">
         <v>122</v>
@@ -2513,7 +2459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2527,12 +2473,11 @@
         <v>7.64</v>
       </c>
       <c r="E59" s="2">
-        <v>0.47793333333333</v>
-      </c>
-      <c r="F59"/>
+        <v>0.47793333333332999</v>
+      </c>
       <c r="G59" s="3" t="str">
-        <f>if(F59 = "","",((F59/((I59/100)+1))-D59)/(F59/((I59/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H59" t="s">
         <v>124</v>
@@ -2541,7 +2486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2552,15 +2497,14 @@
         <v>85</v>
       </c>
       <c r="D60">
-        <v>35.37</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="E60" s="2">
-        <v>0.48817529411765</v>
-      </c>
-      <c r="F60"/>
+        <v>0.48817529411764998</v>
+      </c>
       <c r="G60" s="3" t="str">
-        <f>if(F60 = "","",((F60/((I60/100)+1))-D60)/(F60/((I60/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H60" t="s">
         <v>126</v>
@@ -2569,7 +2513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -2583,12 +2527,11 @@
         <v>7.38</v>
       </c>
       <c r="E61" s="2">
-        <v>0.4957</v>
-      </c>
-      <c r="F61"/>
+        <v>0.49569999999999997</v>
+      </c>
       <c r="G61" s="3" t="str">
-        <f>if(F61 = "","",((F61/((I61/100)+1))-D61)/(F61/((I61/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H61" t="s">
         <v>128</v>
@@ -2597,7 +2540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -2611,12 +2554,11 @@
         <v>18.59</v>
       </c>
       <c r="E62" s="3">
-        <v>0.50291956521739</v>
-      </c>
-      <c r="F62"/>
+        <v>0.50291956521739001</v>
+      </c>
       <c r="G62" s="3" t="str">
-        <f>if(F62 = "","",((F62/((I62/100)+1))-D62)/(F62/((I62/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H62" t="s">
         <v>130</v>
@@ -2625,7 +2567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2641,10 +2583,9 @@
       <c r="E63" s="2">
         <v>0.4834</v>
       </c>
-      <c r="F63"/>
       <c r="G63" s="3" t="str">
-        <f>if(F63 = "","",((F63/((I63/100)+1))-D63)/(F63/((I63/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H63" t="s">
         <v>132</v>
@@ -2653,7 +2594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -2664,15 +2605,14 @@
         <v>21</v>
       </c>
       <c r="D64">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="E64" s="3">
-        <v>0.50507142857143</v>
-      </c>
-      <c r="F64"/>
+        <v>0.50507142857142995</v>
+      </c>
       <c r="G64" s="3" t="str">
-        <f>if(F64 = "","",((F64/((I64/100)+1))-D64)/(F64/((I64/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H64" t="s">
         <v>134</v>
@@ -2681,7 +2621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -2695,12 +2635,11 @@
         <v>0.31</v>
       </c>
       <c r="E65" s="3">
-        <v>0.94133846153846</v>
-      </c>
-      <c r="F65"/>
+        <v>0.94133846153846001</v>
+      </c>
       <c r="G65" s="3" t="str">
-        <f>if(F65 = "","",((F65/((I65/100)+1))-D65)/(F65/((I65/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H65" t="s">
         <v>136</v>
@@ -2709,7 +2648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -2723,12 +2662,11 @@
         <v>19.57</v>
       </c>
       <c r="E66" s="2">
-        <v>0.4767152173913</v>
-      </c>
-      <c r="F66"/>
+        <v>0.47671521739130002</v>
+      </c>
       <c r="G66" s="3" t="str">
-        <f>if(F66 = "","",((F66/((I66/100)+1))-D66)/(F66/((I66/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" ref="G66:G97" si="2">IF(F66 = "","",((F66/((I66/100)+1))-D66)/(F66/((I66/100)+1)))</f>
+        <v/>
       </c>
       <c r="H66" t="s">
         <v>138</v>
@@ -2737,7 +2675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -2751,12 +2689,11 @@
         <v>38.06</v>
       </c>
       <c r="E67" s="2">
-        <v>0.468025</v>
-      </c>
-      <c r="F67"/>
+        <v>0.46802500000000002</v>
+      </c>
       <c r="G67" s="3" t="str">
-        <f>if(F67 = "","",((F67/((I67/100)+1))-D67)/(F67/((I67/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H67" t="s">
         <v>140</v>
@@ -2765,7 +2702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -2779,12 +2716,11 @@
         <v>7.89</v>
       </c>
       <c r="E68" s="2">
-        <v>0.48922631578947</v>
-      </c>
-      <c r="F68"/>
+        <v>0.48922631578947001</v>
+      </c>
       <c r="G68" s="3" t="str">
-        <f>if(F68 = "","",((F68/((I68/100)+1))-D68)/(F68/((I68/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H68" t="s">
         <v>142</v>
@@ -2793,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -2807,12 +2743,11 @@
         <v>20.48</v>
       </c>
       <c r="E69" s="2">
-        <v>0.496192</v>
-      </c>
-      <c r="F69"/>
+        <v>0.49619200000000002</v>
+      </c>
       <c r="G69" s="3" t="str">
-        <f>if(F69 = "","",((F69/((I69/100)+1))-D69)/(F69/((I69/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H69" t="s">
         <v>144</v>
@@ -2821,7 +2756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -2832,15 +2767,14 @@
         <v>22</v>
       </c>
       <c r="D70">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="E70" s="2">
-        <v>0.48116363636364</v>
-      </c>
-      <c r="F70"/>
+        <v>0.48116363636364001</v>
+      </c>
       <c r="G70" s="3" t="str">
-        <f>if(F70 = "","",((F70/((I70/100)+1))-D70)/(F70/((I70/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H70" t="s">
         <v>146</v>
@@ -2849,7 +2783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -2863,12 +2797,11 @@
         <v>3.11</v>
       </c>
       <c r="E71" s="2">
-        <v>0.36245</v>
-      </c>
-      <c r="F71"/>
+        <v>0.36244999999999999</v>
+      </c>
       <c r="G71" s="3" t="str">
-        <f>if(F71 = "","",((F71/((I71/100)+1))-D71)/(F71/((I71/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H71" t="s">
         <v>148</v>
@@ -2877,7 +2810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -2891,12 +2824,11 @@
         <v>23.89</v>
       </c>
       <c r="E72" s="2">
-        <v>0.46573272727273</v>
-      </c>
-      <c r="F72"/>
+        <v>0.46573272727273002</v>
+      </c>
       <c r="G72" s="3" t="str">
-        <f>if(F72 = "","",((F72/((I72/100)+1))-D72)/(F72/((I72/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H72" t="s">
         <v>150</v>
@@ -2905,7 +2837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -2919,12 +2851,11 @@
         <v>7.12</v>
       </c>
       <c r="E73" s="2">
-        <v>0.48484705882353</v>
-      </c>
-      <c r="F73"/>
+        <v>0.48484705882353002</v>
+      </c>
       <c r="G73" s="3" t="str">
-        <f>if(F73 = "","",((F73/((I73/100)+1))-D73)/(F73/((I73/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H73" t="s">
         <v>152</v>
@@ -2933,7 +2864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -2947,12 +2878,11 @@
         <v>2.52</v>
       </c>
       <c r="E74" s="2">
-        <v>0.38008</v>
-      </c>
-      <c r="F74"/>
+        <v>0.38007999999999997</v>
+      </c>
       <c r="G74" s="3" t="str">
-        <f>if(F74 = "","",((F74/((I74/100)+1))-D74)/(F74/((I74/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H74" t="s">
         <v>154</v>
@@ -2961,7 +2891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -2975,12 +2905,11 @@
         <v>18.25</v>
       </c>
       <c r="E75" s="3">
-        <v>0.50116666666667</v>
-      </c>
-      <c r="F75"/>
+        <v>0.50116666666666998</v>
+      </c>
       <c r="G75" s="3" t="str">
-        <f>if(F75 = "","",((F75/((I75/100)+1))-D75)/(F75/((I75/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H75" t="s">
         <v>156</v>
@@ -2989,7 +2918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -3003,12 +2932,11 @@
         <v>8.15</v>
       </c>
       <c r="E76" s="2">
-        <v>0.498775</v>
-      </c>
-      <c r="F76"/>
+        <v>0.49877500000000002</v>
+      </c>
       <c r="G76" s="3" t="str">
-        <f>if(F76 = "","",((F76/((I76/100)+1))-D76)/(F76/((I76/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H76" t="s">
         <v>158</v>
@@ -3017,7 +2945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -3031,12 +2959,11 @@
         <v>21.03</v>
       </c>
       <c r="E77" s="2">
-        <v>0.482662</v>
-      </c>
-      <c r="F77"/>
+        <v>0.48266199999999998</v>
+      </c>
       <c r="G77" s="3" t="str">
-        <f>if(F77 = "","",((F77/((I77/100)+1))-D77)/(F77/((I77/100)+1)))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H77" t="s">
         <v>160</v>
@@ -3046,17 +2973,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>